--- a/biology/Botanique/Hymenostegia_afzelii/Hymenostegia_afzelii.xlsx
+++ b/biology/Botanique/Hymenostegia_afzelii/Hymenostegia_afzelii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hymenostegia afzelii est une espèce de plantes de la famille des Fabaceae et du genre Hymenostegia, présente en Afrique de l'Ouest et utilisée en médecine traditionnelle[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hymenostegia afzelii est une espèce de plantes de la famille des Fabaceae et du genre Hymenostegia, présente en Afrique de l'Ouest et utilisée en médecine traditionnelle.
 Son épithète spécifique afzelii rend hommage au botaniste suédois Adam Afzelius.
 </t>
         </is>
